--- a/verydows电商系统测试/测试用例/缺陷报告.xlsx
+++ b/verydows电商系统测试/测试用例/缺陷报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16104" windowHeight="8784"/>
+    <workbookView windowWidth="20328" windowHeight="9035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>缺陷编号</t>
   </si>
@@ -40,6 +40,57 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>bug_verydows_cart_function_0001</t>
+  </si>
+  <si>
+    <t>verydows/cart</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>未登录时可以将商品添加进购物车</t>
+  </si>
+  <si>
+    <t>1.点击首页的任何一个商品，点击《加入购物车》按钮，点击购物车查看是否添加进入购物车
+2.跳出登录页面
+3.商品成功添加到购物车</t>
+  </si>
+  <si>
+    <t>李文达</t>
+  </si>
+  <si>
+    <t>bug_verydows_cart_function_0002</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>未登录时点击《购物车》按钮可以进入购物车页面</t>
+  </si>
+  <si>
+    <t>1.打开商城页面，点击《购物车》按钮
+2.跳出登录页面
+3.直接进入购物车</t>
+  </si>
+  <si>
+    <t>bug_verydows_register_function_0001</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>32位密码注册出现密码格式错误提示</t>
+  </si>
+  <si>
+    <t>1.输入密码，输入确认密码，点击注册
+2.密码文本框旁边没有跳出提示
+3.出现密码格式错误提示</t>
   </si>
 </sst>
 </file>
@@ -721,6 +772,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624205</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3878580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2506980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="微信截图_20221011130431"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10911205" y="276860"/>
+          <a:ext cx="3917315" cy="2413000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2687955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3837305</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1643380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="捕获"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11093450" y="2870835"/>
+          <a:ext cx="3693795" cy="1673225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3275965</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1543050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11015980" y="4733925"/>
+          <a:ext cx="3209925" cy="1424305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1010,21 +1180,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="25.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="37.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="40.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="20.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="25.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="20.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="57.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1053,13 +1224,80 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="6:6">
-      <c r="F2" s="1"/>
+    <row r="2" ht="214" customHeight="1" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="135" customHeight="1" spans="1:7">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="124" customHeight="1" spans="1:7">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
